--- a/data/raw/CD_RiskFree.xlsx
+++ b/data/raw/CD_RiskFree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulum\Google 드라이브\학생자율연구\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulum\github\clustering-based-portfolio-analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F01B93-B193-45F9-A5A9-3F5CD8F6FF61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4F4BB48-BAC4-47B6-989C-1D5347256AF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CD_RiskFree" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Time</t>
   </si>
@@ -278,18 +278,12 @@
   </si>
   <si>
     <t>2017/4 Quarter</t>
-  </si>
-  <si>
-    <t>2018/1 Quarter</t>
-  </si>
-  <si>
-    <t>2018/2 Quarter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1234,11 +1228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1923,22 +1917,6 @@
         <v>1.504137931</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>1.6518032789999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>1.65</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
